--- a/data/trans_orig/P15D$nada-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15D$nada-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5919</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2548</v>
+        <v>2075</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10686</v>
+        <v>10992</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2598151217007461</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.11186108182804</v>
+        <v>0.09109720838900508</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4690547123557837</v>
+        <v>0.4824784887883394</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5349</v>
+        <v>5362</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1082265832078174</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3371262107862114</v>
+        <v>0.3379453075702072</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>7636</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3668</v>
+        <v>3816</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13505</v>
+        <v>13128</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1975809010317548</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0949063586992251</v>
+        <v>0.09874441296995812</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3494277320277137</v>
+        <v>0.3396793592153162</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1047</v>
+        <v>1064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9312</v>
+        <v>8888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1840486063861374</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04595516087479297</v>
+        <v>0.04672269498110827</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4087369402411669</v>
+        <v>0.3901198445507893</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5854</v>
+        <v>5760</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1223490757713841</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3689258231271703</v>
+        <v>0.3630068286161428</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -857,19 +857,19 @@
         <v>6134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2510</v>
+        <v>2738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11387</v>
+        <v>12035</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1587180488015951</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06494043461486987</v>
+        <v>0.07084998525407837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2946158226613013</v>
+        <v>0.3113961019574343</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>12670</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7904</v>
+        <v>7500</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17274</v>
+        <v>17563</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5561362719131164</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3469380368497907</v>
+        <v>0.3291869235029341</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7582355062961159</v>
+        <v>0.7709071627141344</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>11187</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7114</v>
+        <v>7178</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14056</v>
+        <v>14058</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7050607789982489</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4483378639411549</v>
+        <v>0.4524141174018623</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8858368102742077</v>
+        <v>0.8860201127922244</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -928,7 +928,7 @@
         <v>23857</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17685</v>
+        <v>17528</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>29677</v>
@@ -937,10 +937,10 @@
         <v>0.6172767824629246</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4575829988009316</v>
+        <v>0.4535189938261074</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7678588299450784</v>
+        <v>0.7678641277121507</v>
       </c>
     </row>
     <row r="7">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4283</v>
+        <v>5218</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06436356202254953</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2699034130707912</v>
+        <v>0.3288658860696373</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5049</v>
+        <v>5060</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02642426770372559</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.130646596321038</v>
+        <v>0.1309306744751536</v>
       </c>
     </row>
     <row r="8">
@@ -1024,19 +1024,19 @@
         <v>6352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2238</v>
+        <v>2144</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12065</v>
+        <v>11647</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1484775615467858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05230793093110281</v>
+        <v>0.05011728689331434</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2820316890270413</v>
+        <v>0.2722572669597052</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1045,19 +1045,19 @@
         <v>8064</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3695</v>
+        <v>3764</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13846</v>
+        <v>14402</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2675995200924185</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1226127015316976</v>
+        <v>0.1249146593616103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4594798761372315</v>
+        <v>0.4779071315780554</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1066,19 +1066,19 @@
         <v>14416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8411</v>
+        <v>8762</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23259</v>
+        <v>23263</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1977099872319226</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1153538618243585</v>
+        <v>0.1201627044317526</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3189936676128168</v>
+        <v>0.3190442773557654</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>4727</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1830</v>
+        <v>1763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9721</v>
+        <v>9191</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1105023499114536</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04276771932262336</v>
+        <v>0.04121830261879258</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2272296168029961</v>
+        <v>0.2148431562214487</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1116,19 +1116,19 @@
         <v>4400</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1066</v>
+        <v>1118</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9980</v>
+        <v>10391</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1460192195950259</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03535872476245112</v>
+        <v>0.03709923219459702</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3311691491026412</v>
+        <v>0.3448188878584745</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -1137,19 +1137,19 @@
         <v>9128</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4241</v>
+        <v>4666</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16387</v>
+        <v>16215</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1251812694709849</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05816802200982634</v>
+        <v>0.06398627530348315</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2247411421304399</v>
+        <v>0.222387430580215</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>23507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17317</v>
+        <v>16959</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30070</v>
+        <v>31413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5494892133412407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4047991846969327</v>
+        <v>0.3964185932630587</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7029029100025072</v>
+        <v>0.7342968983162256</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1187,19 +1187,19 @@
         <v>17671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11687</v>
+        <v>11858</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22673</v>
+        <v>22918</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5863812603125557</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3878379816977863</v>
+        <v>0.393492021755702</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7523701291225008</v>
+        <v>0.7605141829605679</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1208,19 +1208,19 @@
         <v>41178</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31891</v>
+        <v>32399</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48946</v>
+        <v>49505</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5647364858262046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4373706993230138</v>
+        <v>0.4443399533534982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6712716878708598</v>
+        <v>0.6789425334592868</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>8194</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3529</v>
+        <v>3397</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14556</v>
+        <v>15018</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1915308752005199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08249273657807528</v>
+        <v>0.07939509291701802</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.340261384807181</v>
+        <v>0.3510585836538161</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1271,19 +1271,19 @@
         <v>8194</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3304</v>
+        <v>3249</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15310</v>
+        <v>15185</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1123722574708879</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04531198016163201</v>
+        <v>0.04456367390399983</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2099664263431115</v>
+        <v>0.2082629179999055</v>
       </c>
     </row>
     <row r="12">
@@ -1304,19 +1304,19 @@
         <v>8835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4364</v>
+        <v>4584</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13361</v>
+        <v>13540</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.371125704756917</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1832952479430206</v>
+        <v>0.1925392591920851</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5612462975944686</v>
+        <v>0.5687489615047985</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1325,19 +1325,19 @@
         <v>2986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7294</v>
+        <v>7750</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1238333715012155</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03825451477418589</v>
+        <v>0.03804840435704288</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3024920781405268</v>
+        <v>0.321388563236308</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -1346,19 +1346,19 @@
         <v>11821</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6703</v>
+        <v>6553</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18773</v>
+        <v>18419</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2466831382293118</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1398803526593536</v>
+        <v>0.1367481075529574</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3917569651628444</v>
+        <v>0.3843636550334086</v>
       </c>
     </row>
     <row r="13">
@@ -1375,19 +1375,19 @@
         <v>5683</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2045</v>
+        <v>2085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11145</v>
+        <v>10562</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.238732942455621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08589845047854137</v>
+        <v>0.08758528171486493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4681684347589989</v>
+        <v>0.4436576185032829</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5283</v>
+        <v>6310</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04452259370139989</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2190956398042608</v>
+        <v>0.2616634906081743</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1417,19 +1417,19 @@
         <v>6757</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2986</v>
+        <v>2967</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13606</v>
+        <v>12826</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1410023176238082</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06232086649867321</v>
+        <v>0.06191876133562389</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2839299946177471</v>
+        <v>0.2676545042095931</v>
       </c>
     </row>
     <row r="14">
@@ -1446,19 +1446,19 @@
         <v>3601</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7662</v>
+        <v>8490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.151256022419719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03948849322747008</v>
+        <v>0.03856138678896213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3218556948906</v>
+        <v>0.3566156182212713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -1467,19 +1467,19 @@
         <v>18343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13547</v>
+        <v>13924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21573</v>
+        <v>22013</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7606876823907627</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5617837600180322</v>
+        <v>0.5774255242864265</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8946330247154786</v>
+        <v>0.9128825216300538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1488,19 +1488,19 @@
         <v>21944</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15238</v>
+        <v>14912</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29066</v>
+        <v>29402</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4579345145974662</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3179890093172881</v>
+        <v>0.3111931084947521</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6065616633679424</v>
+        <v>0.6135565510123588</v>
       </c>
     </row>
     <row r="15">
@@ -1517,19 +1517,19 @@
         <v>5687</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1982</v>
+        <v>2058</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11244</v>
+        <v>10912</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2388853303677429</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08325327519644365</v>
+        <v>0.0864320964143576</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4723163258587278</v>
+        <v>0.4583681748600379</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5625</v>
+        <v>5781</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07095635240662194</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2332633667491663</v>
+        <v>0.2397425617133905</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -1559,19 +1559,19 @@
         <v>7398</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3001</v>
+        <v>3575</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13464</v>
+        <v>13975</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1543800295494138</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06262601475222905</v>
+        <v>0.07461124034112407</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2809650557003401</v>
+        <v>0.2916328083324286</v>
       </c>
     </row>
     <row r="16">
@@ -1592,19 +1592,19 @@
         <v>11582</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6294</v>
+        <v>6862</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17229</v>
+        <v>17959</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3435646441601239</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1867087067498007</v>
+        <v>0.2035681704257853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5110830033378868</v>
+        <v>0.5327390364134399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1613,19 +1613,19 @@
         <v>2944</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7231</v>
+        <v>7867</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1242937477694894</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03811668812638579</v>
+        <v>0.03854598175533957</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3052348637071269</v>
+        <v>0.3320862069587404</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1634,19 +1634,19 @@
         <v>14526</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8390</v>
+        <v>8998</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22171</v>
+        <v>22839</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2530696628770367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1461686506008963</v>
+        <v>0.1567676726694162</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3862621128366918</v>
+        <v>0.3978903911378505</v>
       </c>
     </row>
     <row r="17">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6046</v>
+        <v>5803</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05241024682674987</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1793568353469734</v>
+        <v>0.1721462884559901</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1684,19 +1684,19 @@
         <v>4741</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1180</v>
+        <v>1234</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10169</v>
+        <v>10113</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2001169876493438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04979343573690757</v>
+        <v>0.05208529944967199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4292751658164577</v>
+        <v>0.4269068020126696</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1705,19 +1705,19 @@
         <v>6507</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2481</v>
+        <v>2719</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13094</v>
+        <v>12815</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.113370086760607</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04321725436432888</v>
+        <v>0.04736783284048056</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2281167336654584</v>
+        <v>0.2232642336015886</v>
       </c>
     </row>
     <row r="18">
@@ -1734,19 +1734,19 @@
         <v>17127</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11525</v>
+        <v>10744</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22790</v>
+        <v>22266</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5080834693556696</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.341889320580728</v>
+        <v>0.3187281004684609</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6760701588417262</v>
+        <v>0.6605164601759607</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -1755,19 +1755,19 @@
         <v>13676</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8429</v>
+        <v>8415</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18369</v>
+        <v>18622</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.577315367290941</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3558398099448505</v>
+        <v>0.3552120456869137</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7754426886256048</v>
+        <v>0.786114279911148</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -1776,19 +1776,19 @@
         <v>30804</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>22687</v>
+        <v>22590</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>38907</v>
+        <v>37996</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5366560679584662</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3952465325198691</v>
+        <v>0.3935657293204863</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6778402228554313</v>
+        <v>0.6619691053261717</v>
       </c>
     </row>
     <row r="19">
@@ -1805,19 +1805,19 @@
         <v>3234</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>838</v>
+        <v>877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8380</v>
+        <v>8673</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09594163965745661</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02486773710031193</v>
+        <v>0.02602189022916261</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2485855665642973</v>
+        <v>0.2572814605291046</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6962</v>
+        <v>8120</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09827389729022568</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2938910812813499</v>
+        <v>0.3427600528809743</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1847,19 +1847,19 @@
         <v>5562</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1763</v>
+        <v>1926</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11677</v>
+        <v>12258</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09690418240389009</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03071040189792574</v>
+        <v>0.03355873583211002</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2034350386645349</v>
+        <v>0.2135492544610251</v>
       </c>
     </row>
     <row r="20">
@@ -1880,19 +1880,19 @@
         <v>32687</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23870</v>
+        <v>22342</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44343</v>
+        <v>41874</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2655842378328501</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1939422300684575</v>
+        <v>0.1815320839086485</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3602895246098741</v>
+        <v>0.3402234738514942</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1901,19 +1901,19 @@
         <v>15712</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9469</v>
+        <v>9535</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24252</v>
+        <v>23456</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1674949376004987</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1009434212621744</v>
+        <v>0.1016480972577548</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2585302242957889</v>
+        <v>0.2500440193789143</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>48</v>
@@ -1922,19 +1922,19 @@
         <v>48399</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38043</v>
+        <v>36557</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61297</v>
+        <v>61021</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2231587757473505</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1754096104823861</v>
+        <v>0.1685577535267469</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2826283477042482</v>
+        <v>0.2813563759259844</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>16370</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10495</v>
+        <v>9699</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25038</v>
+        <v>25442</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1330071281393734</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08526873387440979</v>
+        <v>0.07880360437150107</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2034343881279127</v>
+        <v>0.2067123141464683</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -1972,19 +1972,19 @@
         <v>12156</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6299</v>
+        <v>6377</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19814</v>
+        <v>20748</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1295856803154422</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06715339164223137</v>
+        <v>0.06798481995835218</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2112228102569922</v>
+        <v>0.2211794543443237</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -1993,19 +1993,19 @@
         <v>28526</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19627</v>
+        <v>19527</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>40792</v>
+        <v>40520</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1315272877838212</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09049492133818282</v>
+        <v>0.09003559529541018</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1880831027163374</v>
+        <v>0.186830918338989</v>
       </c>
     </row>
     <row r="22">
@@ -2022,19 +2022,19 @@
         <v>56905</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46381</v>
+        <v>45687</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67789</v>
+        <v>68168</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4623522388270693</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3768428770374856</v>
+        <v>0.371205066504221</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5507816396693321</v>
+        <v>0.5538676501407658</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -2043,19 +2043,19 @@
         <v>60878</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51383</v>
+        <v>51054</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69882</v>
+        <v>69735</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6489744523220928</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5477534266758802</v>
+        <v>0.5442485278049736</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7449623015142078</v>
+        <v>0.7433971074985669</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>114</v>
@@ -2064,19 +2064,19 @@
         <v>117783</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>101883</v>
+        <v>102998</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>132693</v>
+        <v>133496</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5430698463968071</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4697622848356307</v>
+        <v>0.474900059923738</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6118178842034363</v>
+        <v>0.615520220945219</v>
       </c>
     </row>
     <row r="23">
@@ -2093,19 +2093,19 @@
         <v>17115</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10032</v>
+        <v>10059</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25984</v>
+        <v>26532</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1390563952007072</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08150827468456871</v>
+        <v>0.08172693928123792</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2111226384653651</v>
+        <v>0.215573056269215</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2114,19 +2114,19 @@
         <v>5060</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1914</v>
+        <v>1847</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11465</v>
+        <v>10958</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05394492976196631</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02040711089419837</v>
+        <v>0.01968920605883851</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.122219228497166</v>
+        <v>0.1168116804212149</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -2135,19 +2135,19 @@
         <v>22175</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>13820</v>
+        <v>13558</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32734</v>
+        <v>32558</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1022440900720212</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06372169424785272</v>
+        <v>0.06251196491602909</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1509301942085568</v>
+        <v>0.1501177379075172</v>
       </c>
     </row>
     <row r="24">
@@ -2408,19 +2408,19 @@
         <v>11262</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5711</v>
+        <v>5565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17582</v>
+        <v>17781</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1908109510392726</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0967621308118486</v>
+        <v>0.09428575000519471</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.297894326708451</v>
+        <v>0.3012640248660639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2429,19 +2429,19 @@
         <v>13582</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7473</v>
+        <v>8067</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20455</v>
+        <v>20621</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2588283544804011</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1424137939380869</v>
+        <v>0.1537261125526561</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3898047880719961</v>
+        <v>0.3929693456020885</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -2450,19 +2450,19 @@
         <v>24844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17399</v>
+        <v>17538</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34983</v>
+        <v>34211</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2228230404357288</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1560484642099822</v>
+        <v>0.1572966600551704</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3137568538645986</v>
+        <v>0.3068273224202023</v>
       </c>
     </row>
     <row r="5">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5066</v>
+        <v>5118</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01700128869559463</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08583975732445361</v>
+        <v>0.0867207530330099</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -2500,19 +2500,19 @@
         <v>4018</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10120</v>
+        <v>9007</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07657587189495425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01986229895444312</v>
+        <v>0.01966074164396524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1928589014834592</v>
+        <v>0.1716348090337446</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -2521,19 +2521,19 @@
         <v>5022</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1956</v>
+        <v>1946</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11344</v>
+        <v>10240</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04503980217376922</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01754401699236027</v>
+        <v>0.01745195343923006</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1017441901760721</v>
+        <v>0.09184262646122311</v>
       </c>
     </row>
     <row r="6">
@@ -2550,19 +2550,19 @@
         <v>40014</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33022</v>
+        <v>32202</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46634</v>
+        <v>46574</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6779532537574391</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5594837403309006</v>
+        <v>0.545588525904358</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7901157124154715</v>
+        <v>0.789102757590771</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -2571,19 +2571,19 @@
         <v>30456</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22797</v>
+        <v>23103</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37509</v>
+        <v>38102</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5803791701991401</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4344268406411603</v>
+        <v>0.4402670573392587</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7147791473607681</v>
+        <v>0.7260809084844755</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>68</v>
@@ -2592,19 +2592,19 @@
         <v>70470</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>58467</v>
+        <v>59882</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79794</v>
+        <v>79287</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6320304438937973</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5243778408223702</v>
+        <v>0.5370679354357887</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7156581070624373</v>
+        <v>0.7111092171371125</v>
       </c>
     </row>
     <row r="7">
@@ -2621,19 +2621,19 @@
         <v>6742</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2782</v>
+        <v>3142</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12645</v>
+        <v>13490</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1142345065076938</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04712785569485013</v>
+        <v>0.05322833147155707</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2142495558336034</v>
+        <v>0.2285523454031615</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2642,19 +2642,19 @@
         <v>4419</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1086</v>
+        <v>1157</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9948</v>
+        <v>10050</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08421660342550458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02069457366091906</v>
+        <v>0.02204199110103063</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1895771994324086</v>
+        <v>0.1915126690530612</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -2663,19 +2663,19 @@
         <v>11162</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6156</v>
+        <v>6246</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18737</v>
+        <v>19588</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1001067134967047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0552142528305762</v>
+        <v>0.0560199107169566</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.16804379942721</v>
+        <v>0.1756781287614095</v>
       </c>
     </row>
     <row r="8">
@@ -2696,19 +2696,19 @@
         <v>18019</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10654</v>
+        <v>11630</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26838</v>
+        <v>26415</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2278631577626075</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1347296529836161</v>
+        <v>0.1470762106108131</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3393901260927196</v>
+        <v>0.3340388249801865</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -2717,19 +2717,19 @@
         <v>17433</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10600</v>
+        <v>10547</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25537</v>
+        <v>26365</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2403235788358565</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1461249808312591</v>
+        <v>0.1453907746407676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3520459940487334</v>
+        <v>0.36346509098854</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -2738,19 +2738,19 @@
         <v>35452</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25517</v>
+        <v>25728</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47730</v>
+        <v>46800</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2338246459799281</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1682993460269515</v>
+        <v>0.1696936525802915</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3148069414524953</v>
+        <v>0.3086743800850017</v>
       </c>
     </row>
     <row r="9">
@@ -2767,19 +2767,19 @@
         <v>6561</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2344</v>
+        <v>2391</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12558</v>
+        <v>13365</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08297433592147103</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02964109538022989</v>
+        <v>0.03023102678868484</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1588018594619003</v>
+        <v>0.1690061033914892</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -2788,19 +2788,19 @@
         <v>8203</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3959</v>
+        <v>4026</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14493</v>
+        <v>14770</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1130801574488848</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05457091044079176</v>
+        <v>0.05550587083230615</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1998005582735398</v>
+        <v>0.203613651743713</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -2809,19 +2809,19 @@
         <v>14764</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8731</v>
+        <v>8473</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24019</v>
+        <v>23473</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09737798241570915</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05758393552839573</v>
+        <v>0.05588509224696091</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1584163611371073</v>
+        <v>0.1548202336599022</v>
       </c>
     </row>
     <row r="10">
@@ -2838,19 +2838,19 @@
         <v>50489</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41435</v>
+        <v>41164</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59453</v>
+        <v>58536</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6384712479343556</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5239812584435171</v>
+        <v>0.5205471293231962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7518282276170321</v>
+        <v>0.7402257829944274</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -2859,19 +2859,19 @@
         <v>38339</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29938</v>
+        <v>29914</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46898</v>
+        <v>46581</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5285250291296976</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4127101005497018</v>
+        <v>0.4123812844049579</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6465231959017668</v>
+        <v>0.6421536515313699</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -2880,19 +2880,19 @@
         <v>88828</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76838</v>
+        <v>74891</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101797</v>
+        <v>100878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5858692464377868</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5067917669474344</v>
+        <v>0.4939503097520966</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6714097587771981</v>
+        <v>0.6653481789754323</v>
       </c>
     </row>
     <row r="11">
@@ -2909,19 +2909,19 @@
         <v>4009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1075</v>
+        <v>976</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10165</v>
+        <v>10171</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05069125838156582</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01358858512375522</v>
+        <v>0.01234047729833742</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1285404246630385</v>
+        <v>0.1286154506491222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -2930,19 +2930,19 @@
         <v>8565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4195</v>
+        <v>4121</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16138</v>
+        <v>15380</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1180712345855612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05783492911053872</v>
+        <v>0.05680548586166057</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2224779396435568</v>
+        <v>0.2120251222285412</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -2951,19 +2951,19 @@
         <v>12573</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6443</v>
+        <v>6460</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20343</v>
+        <v>21776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0829281251665759</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04249226774246843</v>
+        <v>0.04260800460115188</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1341731742736547</v>
+        <v>0.1436222479678481</v>
       </c>
     </row>
     <row r="12">
@@ -2984,19 +2984,19 @@
         <v>10514</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5779</v>
+        <v>5761</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18037</v>
+        <v>18241</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1829780655415674</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1005787705811438</v>
+        <v>0.1002496558738384</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3138872848562054</v>
+        <v>0.3174386456890573</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -3005,19 +3005,19 @@
         <v>13655</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7768</v>
+        <v>8032</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20925</v>
+        <v>21923</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2393790256747685</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1361782782928428</v>
+        <v>0.1408061698952799</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3668214795669317</v>
+        <v>0.3843142449613063</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -3026,19 +3026,19 @@
         <v>24169</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15962</v>
+        <v>16099</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33677</v>
+        <v>34614</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2110758431365796</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1393977370385358</v>
+        <v>0.1405947773328037</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2941083850609664</v>
+        <v>0.3022867492181623</v>
       </c>
     </row>
     <row r="13">
@@ -3055,19 +3055,19 @@
         <v>6053</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2326</v>
+        <v>1933</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12572</v>
+        <v>12570</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1053359769397449</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0404794137224775</v>
+        <v>0.03364723123302558</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2187818675871021</v>
+        <v>0.2187614352861052</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4974</v>
+        <v>5029</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01731715807961351</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08719501715007184</v>
+        <v>0.08815503183230498</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -3097,19 +3097,19 @@
         <v>7041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2867</v>
+        <v>3176</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13245</v>
+        <v>13375</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06148684404082118</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02503437985984665</v>
+        <v>0.0277350163407005</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1156705405048808</v>
+        <v>0.116808427920342</v>
       </c>
     </row>
     <row r="14">
@@ -3126,19 +3126,19 @@
         <v>33334</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25861</v>
+        <v>24827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40544</v>
+        <v>40717</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5801124343991427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4500535601381845</v>
+        <v>0.4320516576300205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7055713272668807</v>
+        <v>0.708584596429058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -3147,19 +3147,19 @@
         <v>37137</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28631</v>
+        <v>29140</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43525</v>
+        <v>43929</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.65102039483248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5018960948311137</v>
+        <v>0.5108324285834764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7629858698965959</v>
+        <v>0.7700750004242227</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>66</v>
@@ -3168,19 +3168,19 @@
         <v>70471</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60142</v>
+        <v>58688</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81896</v>
+        <v>80893</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6154372958423969</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5252319716507142</v>
+        <v>0.5125325055405358</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7152121987564936</v>
+        <v>0.7064502549419263</v>
       </c>
     </row>
     <row r="15">
@@ -3197,19 +3197,19 @@
         <v>7560</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3116</v>
+        <v>3297</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14284</v>
+        <v>14277</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.131573523119545</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05422342595428332</v>
+        <v>0.05737102940124467</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2485772407039984</v>
+        <v>0.2484649355629037</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -3218,19 +3218,19 @@
         <v>5264</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2004</v>
+        <v>1972</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10707</v>
+        <v>11035</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09228342141313796</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03512775008196932</v>
+        <v>0.03457530039108002</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1876866250949552</v>
+        <v>0.1934467695768452</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>12</v>
@@ -3239,19 +3239,19 @@
         <v>12825</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6793</v>
+        <v>7425</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>20822</v>
+        <v>20721</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1120000169802023</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05932290707603872</v>
+        <v>0.06483982249881282</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.181840773409554</v>
+        <v>0.1809561567821611</v>
       </c>
     </row>
     <row r="16">
@@ -3272,19 +3272,19 @@
         <v>31516</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23441</v>
+        <v>22917</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40228</v>
+        <v>42058</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3572950499323584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2657513305051873</v>
+        <v>0.2598031551142506</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4560619703066068</v>
+        <v>0.4768003189051892</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3293,19 +3293,19 @@
         <v>26975</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18967</v>
+        <v>18988</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35681</v>
+        <v>36107</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.373185615552014</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2623909214449254</v>
+        <v>0.2626819250029345</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4936181846607055</v>
+        <v>0.4995102727750488</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -3314,19 +3314,19 @@
         <v>58492</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47119</v>
+        <v>46099</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72335</v>
+        <v>71287</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3644520407550291</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2935908189716155</v>
+        <v>0.287236206871476</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4507088806001975</v>
+        <v>0.4441769163340365</v>
       </c>
     </row>
     <row r="17">
@@ -3343,19 +3343,19 @@
         <v>9562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4804</v>
+        <v>4836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17095</v>
+        <v>17402</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1084074294996975</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05446638596732448</v>
+        <v>0.05482358171464527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1938078723362243</v>
+        <v>0.1972816522427779</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -3364,19 +3364,19 @@
         <v>8631</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3807</v>
+        <v>3872</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15511</v>
+        <v>15578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1194092008380353</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05266362178540936</v>
+        <v>0.05356217135107826</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2145791146153156</v>
+        <v>0.2155097965816457</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -3385,19 +3385,19 @@
         <v>18194</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10636</v>
+        <v>11532</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28032</v>
+        <v>28561</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1133625442757385</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06627110967282912</v>
+        <v>0.07185538965641898</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1746627396244017</v>
+        <v>0.1779581012670345</v>
       </c>
     </row>
     <row r="18">
@@ -3414,19 +3414,19 @@
         <v>42193</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32222</v>
+        <v>31651</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50832</v>
+        <v>50809</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4783347286783924</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3652945849783578</v>
+        <v>0.3588203616493965</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.576279241010709</v>
+        <v>0.5760188265400666</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -3435,19 +3435,19 @@
         <v>34617</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25706</v>
+        <v>25775</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43438</v>
+        <v>43558</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4789091801862984</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.355626719927746</v>
+        <v>0.3565740450677298</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6009297465048631</v>
+        <v>0.6026007212893788</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>74</v>
@@ -3456,19 +3456,19 @@
         <v>76810</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>62902</v>
+        <v>65262</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>89399</v>
+        <v>90395</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4785934573019391</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3919335241912226</v>
+        <v>0.406635254977282</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5570321726283598</v>
+        <v>0.5632383656727238</v>
       </c>
     </row>
     <row r="19">
@@ -3485,19 +3485,19 @@
         <v>4936</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1028</v>
+        <v>1055</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13145</v>
+        <v>12845</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05596279188955167</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01165076583847517</v>
+        <v>0.01196395141794816</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1490196147711596</v>
+        <v>0.14562156043919</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6235</v>
+        <v>7373</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02849600342365234</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08625119624511855</v>
+        <v>0.102006576476309</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3527,19 +3527,19 @@
         <v>6996</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2903</v>
+        <v>2830</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15021</v>
+        <v>14191</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0435919576672933</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01808608435769294</v>
+        <v>0.01763488972179944</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09359296072502292</v>
+        <v>0.08842320912943806</v>
       </c>
     </row>
     <row r="20">
@@ -3560,19 +3560,19 @@
         <v>71311</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>56767</v>
+        <v>56706</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>86055</v>
+        <v>86348</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2513005880605759</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2000465606724085</v>
+        <v>0.1998332905392889</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3032568639912713</v>
+        <v>0.3042914733765441</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -3581,19 +3581,19 @@
         <v>71646</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57322</v>
+        <v>57762</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87312</v>
+        <v>87765</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2816889685887476</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2253725933352568</v>
+        <v>0.2271018087347884</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3432818640050471</v>
+        <v>0.3450642188261306</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -3602,19 +3602,19 @@
         <v>142957</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>124723</v>
+        <v>122433</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>165855</v>
+        <v>164504</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2656639118562051</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2317792469731457</v>
+        <v>0.2275236974518594</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3082158731202521</v>
+        <v>0.3057050302085133</v>
       </c>
     </row>
     <row r="21">
@@ -3631,19 +3631,19 @@
         <v>23180</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15454</v>
+        <v>14492</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34375</v>
+        <v>34646</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08168624819199093</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05446086970180992</v>
+        <v>0.05107066334351698</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.121138025179667</v>
+        <v>0.1220921038702031</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -3652,19 +3652,19 @@
         <v>21840</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13703</v>
+        <v>14081</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31708</v>
+        <v>31866</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08586949544261159</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05387478186468465</v>
+        <v>0.05536053730064572</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1246655032603055</v>
+        <v>0.1252882270091185</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>43</v>
@@ -3673,19 +3673,19 @@
         <v>45020</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33395</v>
+        <v>33002</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60312</v>
+        <v>59837</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08366349520988113</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06205947829665855</v>
+        <v>0.06132875013888575</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1120813445937581</v>
+        <v>0.1111973706930812</v>
       </c>
     </row>
     <row r="22">
@@ -3702,19 +3702,19 @@
         <v>166030</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>147922</v>
+        <v>148648</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>182601</v>
+        <v>183205</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5850886352451744</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5212754344707771</v>
+        <v>0.523833856203814</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6434830684548101</v>
+        <v>0.6456117542444992</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -3723,19 +3723,19 @@
         <v>140550</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>124955</v>
+        <v>125532</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>156571</v>
+        <v>156597</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5525961285964219</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4912829525620363</v>
+        <v>0.4935502705324988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6155883024107116</v>
+        <v>0.6156886981798232</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>289</v>
@@ -3744,19 +3744,19 @@
         <v>306580</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>282790</v>
+        <v>282110</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>330119</v>
+        <v>329704</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5697307785309935</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5255218581946692</v>
+        <v>0.5242585808434899</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6134758129920901</v>
+        <v>0.6127045430043535</v>
       </c>
     </row>
     <row r="23">
@@ -3773,19 +3773,19 @@
         <v>23248</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15216</v>
+        <v>15289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>34109</v>
+        <v>34022</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08192452850225881</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05362065584479793</v>
+        <v>0.05387923259038953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1201999321074332</v>
+        <v>0.1198929040208837</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -3794,19 +3794,19 @@
         <v>20308</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11957</v>
+        <v>12765</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29715</v>
+        <v>29975</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07984540737221883</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04701171180665895</v>
+        <v>0.05018772134421914</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1168307868652389</v>
+        <v>0.1178503247475314</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>41</v>
@@ -3815,19 +3815,19 @@
         <v>43556</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>31220</v>
+        <v>32123</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56848</v>
+        <v>57745</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0809418144029203</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05801759224057974</v>
+        <v>0.05969507980994264</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1056439536739801</v>
+        <v>0.1073111036069275</v>
       </c>
     </row>
     <row r="24">
@@ -4088,19 +4088,19 @@
         <v>7545</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2938</v>
+        <v>3707</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12971</v>
+        <v>13476</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.181347239247986</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07060979148710873</v>
+        <v>0.08910458487186798</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3117473177545679</v>
+        <v>0.3238993876653056</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4109,19 +4109,19 @@
         <v>3841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1015</v>
+        <v>923</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8972</v>
+        <v>8455</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07891095708125985</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02086285336139297</v>
+        <v>0.01896885488673039</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1843333468910555</v>
+        <v>0.173699159334825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -4130,19 +4130,19 @@
         <v>11386</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6655</v>
+        <v>5640</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18744</v>
+        <v>19112</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1261192947064227</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07371576439246026</v>
+        <v>0.0624704283788916</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2076138957172816</v>
+        <v>0.2116923921184441</v>
       </c>
     </row>
     <row r="5">
@@ -4159,19 +4159,19 @@
         <v>4194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1575</v>
+        <v>1620</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8937</v>
+        <v>9448</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1008027801259558</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0378519809641046</v>
+        <v>0.0389455327361843</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2147948311165785</v>
+        <v>0.2270715051173455</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -4180,19 +4180,19 @@
         <v>6916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2990</v>
+        <v>2895</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12929</v>
+        <v>13318</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1420832631644081</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06143263032479132</v>
+        <v>0.05946785808001624</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2656104097885123</v>
+        <v>0.2736039743457752</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -4201,19 +4201,19 @@
         <v>11110</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6125</v>
+        <v>5665</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18724</v>
+        <v>18454</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.123058920037261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06784319167590752</v>
+        <v>0.06274313750384676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2073971727525199</v>
+        <v>0.2043994797866127</v>
       </c>
     </row>
     <row r="6">
@@ -4230,19 +4230,19 @@
         <v>25814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19926</v>
+        <v>19869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31539</v>
+        <v>31481</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.620413326620918</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4789065295535292</v>
+        <v>0.4775456440164317</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7580159970924272</v>
+        <v>0.7566262579808067</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -4251,19 +4251,19 @@
         <v>31110</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24249</v>
+        <v>24543</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37728</v>
+        <v>37661</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6391300178209958</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4981794987267369</v>
+        <v>0.504225506726999</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7751052404344561</v>
+        <v>0.7737331880920411</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -4272,19 +4272,19 @@
         <v>56924</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47966</v>
+        <v>47426</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65350</v>
+        <v>65771</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6305043252567044</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5312807931682613</v>
+        <v>0.5253056351702623</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7238358938321761</v>
+        <v>0.7285001703064623</v>
       </c>
     </row>
     <row r="7">
@@ -4301,19 +4301,19 @@
         <v>4054</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9204</v>
+        <v>9123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09743665400514025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02481322516771717</v>
+        <v>0.02474068619158074</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2212168342678788</v>
+        <v>0.2192751592353504</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4322,19 +4322,19 @@
         <v>6808</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2980</v>
+        <v>2496</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13804</v>
+        <v>13105</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1398757619333362</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06121475359555884</v>
+        <v>0.05127456982376583</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2835852965631371</v>
+        <v>0.269238638737281</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -4343,19 +4343,19 @@
         <v>10863</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5514</v>
+        <v>5775</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19162</v>
+        <v>18265</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.120317459999612</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06107348208206755</v>
+        <v>0.06396913360453643</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2122399677281629</v>
+        <v>0.2023076072102506</v>
       </c>
     </row>
     <row r="8">
@@ -4376,19 +4376,19 @@
         <v>7914</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3730</v>
+        <v>3754</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13965</v>
+        <v>14472</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1308569276034795</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06167215069471683</v>
+        <v>0.06208107237116707</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2309254593000473</v>
+        <v>0.2393001582296891</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -4397,19 +4397,19 @@
         <v>9283</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4819</v>
+        <v>4261</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15931</v>
+        <v>15620</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1957970673111747</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1016432799423303</v>
+        <v>0.08986620951089988</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3360053219732662</v>
+        <v>0.3294481012124512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -4418,19 +4418,19 @@
         <v>17197</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10391</v>
+        <v>10238</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26418</v>
+        <v>26209</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1593955786005655</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0963126758755193</v>
+        <v>0.09489217915955228</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2448714390836011</v>
+        <v>0.2429313153807814</v>
       </c>
     </row>
     <row r="9">
@@ -4447,19 +4447,19 @@
         <v>8895</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3922</v>
+        <v>4642</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15286</v>
+        <v>15533</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1470894734658635</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06485403361823648</v>
+        <v>0.07675923722177205</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2527605550688805</v>
+        <v>0.2568504262521468</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -4468,19 +4468,19 @@
         <v>6433</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2259</v>
+        <v>2278</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12388</v>
+        <v>12997</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1356895536617466</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04765648097689856</v>
+        <v>0.04805321992536966</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2612759764805822</v>
+        <v>0.2741363540984817</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -4489,19 +4489,19 @@
         <v>15329</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8586</v>
+        <v>9125</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23317</v>
+        <v>23463</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1420796546673691</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07958062808932294</v>
+        <v>0.08457576161423325</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2161247351860934</v>
+        <v>0.2174746650519594</v>
       </c>
     </row>
     <row r="10">
@@ -4518,19 +4518,19 @@
         <v>34593</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26577</v>
+        <v>26214</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42617</v>
+        <v>42060</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5720250197585537</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4394787890375061</v>
+        <v>0.4334732538984316</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7047088440618005</v>
+        <v>0.6954860595098813</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -4539,19 +4539,19 @@
         <v>25341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17924</v>
+        <v>17883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31815</v>
+        <v>32824</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5344938684420563</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3780413801261433</v>
+        <v>0.3771925281942605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6710354573646166</v>
+        <v>0.6923067659305587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -4560,19 +4560,19 @@
         <v>59935</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49015</v>
+        <v>48817</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70566</v>
+        <v>70358</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5555315469424885</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4543179088965469</v>
+        <v>0.4524793333178775</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6540730244143256</v>
+        <v>0.6521492226998143</v>
       </c>
     </row>
     <row r="11">
@@ -4589,19 +4589,19 @@
         <v>9073</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4459</v>
+        <v>4491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16779</v>
+        <v>16238</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1500285791721033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0737286296475287</v>
+        <v>0.07425944986360802</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2774487941289738</v>
+        <v>0.2685002347970404</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -4610,19 +4610,19 @@
         <v>7376</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3374</v>
+        <v>3461</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14581</v>
+        <v>14362</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.155574511464936</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07115735360694249</v>
+        <v>0.07300777822804012</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3075315716002937</v>
+        <v>0.3029258712348544</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -4631,19 +4631,19 @@
         <v>16449</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9978</v>
+        <v>9803</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26349</v>
+        <v>27693</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1524657994625282</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09248288089149084</v>
+        <v>0.09086486107395016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2442286706041626</v>
+        <v>0.2566855305001718</v>
       </c>
     </row>
     <row r="12">
@@ -4664,19 +4664,19 @@
         <v>5879</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2181</v>
+        <v>2166</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12316</v>
+        <v>11354</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1603396780901227</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05946939219707262</v>
+        <v>0.0590615594780786</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3359078039873428</v>
+        <v>0.3096702071929933</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -4685,19 +4685,19 @@
         <v>8659</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4150</v>
+        <v>4065</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14281</v>
+        <v>14906</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2743595257781651</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1314902321904378</v>
+        <v>0.1287866033057177</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4524987302813585</v>
+        <v>0.4723021589199274</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -4706,19 +4706,19 @@
         <v>14538</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8107</v>
+        <v>8824</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22015</v>
+        <v>22619</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.21308386303544</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1188252978111468</v>
+        <v>0.1293337568642042</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3226736452976143</v>
+        <v>0.3315272735093118</v>
       </c>
     </row>
     <row r="13">
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7275</v>
+        <v>6928</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05430832434244121</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1984134686464169</v>
+        <v>0.1889562768578857</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6495</v>
+        <v>6229</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02918595870812541</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09520304191239545</v>
+        <v>0.09129254636478866</v>
       </c>
     </row>
     <row r="14">
@@ -4798,19 +4798,19 @@
         <v>24751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18262</v>
+        <v>18121</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29789</v>
+        <v>29659</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.675051190647207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4980571275297996</v>
+        <v>0.4942260689402679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8124368263627266</v>
+        <v>0.8088963118918693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -4819,19 +4819,19 @@
         <v>20790</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14998</v>
+        <v>14908</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26007</v>
+        <v>26257</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6587132299718894</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4752076190163974</v>
+        <v>0.4723526557943396</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8240184828093339</v>
+        <v>0.8319454796980886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -4840,19 +4840,19 @@
         <v>45541</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37595</v>
+        <v>37406</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52799</v>
+        <v>52857</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6674934501576216</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5510213750583609</v>
+        <v>0.5482538314770394</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7738756804578226</v>
+        <v>0.774718458355857</v>
       </c>
     </row>
     <row r="15">
@@ -4869,19 +4869,19 @@
         <v>4044</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9274</v>
+        <v>8891</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1103008069202291</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02791586846559554</v>
+        <v>0.02742757765959465</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2529276386759493</v>
+        <v>0.2424832326794564</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7494</v>
+        <v>6518</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06692724424994551</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2374293534371076</v>
+        <v>0.206510966868374</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -4911,19 +4911,19 @@
         <v>6157</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11546</v>
+        <v>12389</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09023672809881296</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03101218496936927</v>
+        <v>0.03091439363592253</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1692224110291569</v>
+        <v>0.1815907697713949</v>
       </c>
     </row>
     <row r="16">
@@ -4944,19 +4944,19 @@
         <v>11050</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5793</v>
+        <v>5546</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19101</v>
+        <v>18697</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1814892807991934</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09513706729911907</v>
+        <v>0.09108771382825458</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.313724844826427</v>
+        <v>0.3070741557933904</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4965,19 +4965,19 @@
         <v>5320</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1332</v>
+        <v>1295</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12037</v>
+        <v>11713</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0849619793798667</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02127708561009154</v>
+        <v>0.02067883964547966</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1922289877083742</v>
+        <v>0.1870479603757416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -4986,19 +4986,19 @@
         <v>16370</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9887</v>
+        <v>9182</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27342</v>
+        <v>25975</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1325487299303696</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08005446499475292</v>
+        <v>0.07434837455597899</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2213886568422803</v>
+        <v>0.2103195867552765</v>
       </c>
     </row>
     <row r="17">
@@ -5015,19 +5015,19 @@
         <v>10394</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5396</v>
+        <v>5515</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17531</v>
+        <v>17286</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1707162597471937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08863241543336138</v>
+        <v>0.09057864198943529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.28793608198493</v>
+        <v>0.2839069857212959</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -5036,19 +5036,19 @@
         <v>6126</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2129</v>
+        <v>2787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12499</v>
+        <v>12148</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09783227328522549</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03399905891084842</v>
+        <v>0.04450754265904884</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1996094154727369</v>
+        <v>0.1940050380294291</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -5057,19 +5057,19 @@
         <v>16520</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10470</v>
+        <v>9643</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26118</v>
+        <v>25277</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1337631657052376</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0847749537921413</v>
+        <v>0.07808161414762836</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.21147664612382</v>
+        <v>0.2046627896419082</v>
       </c>
     </row>
     <row r="18">
@@ -5086,19 +5086,19 @@
         <v>35896</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28520</v>
+        <v>28128</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>42998</v>
+        <v>43224</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.589564838387026</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4684088292373826</v>
+        <v>0.4619837736184533</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7062090232343214</v>
+        <v>0.7099087647607106</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -5107,19 +5107,19 @@
         <v>46449</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38103</v>
+        <v>38861</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52626</v>
+        <v>53567</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7417766482777244</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6084979482214611</v>
+        <v>0.620599082180477</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8404350248759569</v>
+        <v>0.8554584923532852</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>75</v>
@@ -5128,19 +5128,19 @@
         <v>82345</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>71180</v>
+        <v>70423</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>92842</v>
+        <v>93452</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6667381325251335</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5763388250432288</v>
+        <v>0.5702045993880409</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.751735283925157</v>
+        <v>0.7566680420815927</v>
       </c>
     </row>
     <row r="19">
@@ -5157,19 +5157,19 @@
         <v>5194</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11098</v>
+        <v>11292</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08530422542202183</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03049902280799011</v>
+        <v>0.03061586950991224</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1822740674879142</v>
+        <v>0.1854674418534009</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5178,19 +5178,19 @@
         <v>4723</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11940</v>
+        <v>11371</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07542909905718342</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01773842085152667</v>
+        <v>0.01754249652432151</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1906795546380152</v>
+        <v>0.1815890690485131</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -5199,19 +5199,19 @@
         <v>9917</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4536</v>
+        <v>4713</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17356</v>
+        <v>18499</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08029741266451039</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03672618148666635</v>
+        <v>0.03816464845849345</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1405324408125062</v>
+        <v>0.1497851841091573</v>
       </c>
     </row>
     <row r="20">
@@ -5232,19 +5232,19 @@
         <v>32388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23674</v>
+        <v>22466</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44609</v>
+        <v>44023</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1622372349374258</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1185887536949331</v>
+        <v>0.1125356196550872</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2234517197381383</v>
+        <v>0.2205163787498732</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -5253,19 +5253,19 @@
         <v>27103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17766</v>
+        <v>18946</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37592</v>
+        <v>38836</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1424495369794327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09337410973040168</v>
+        <v>0.09957699663614289</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1975778706328508</v>
+        <v>0.2041149012183035</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>56</v>
@@ -5274,19 +5274,19 @@
         <v>59491</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>45479</v>
+        <v>45556</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>75988</v>
+        <v>73907</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1525810898873958</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1166424917785176</v>
+        <v>0.1168391849727012</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1948902165250718</v>
+        <v>0.1895526349169909</v>
       </c>
     </row>
     <row r="21">
@@ -5303,19 +5303,19 @@
         <v>25475</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17838</v>
+        <v>17507</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36053</v>
+        <v>34811</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.127607582443979</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08935257637601915</v>
+        <v>0.08769774928772353</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1805958467185067</v>
+        <v>0.1743722190095187</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -5324,19 +5324,19 @@
         <v>19475</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12031</v>
+        <v>12006</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28621</v>
+        <v>29334</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1023582713288297</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06323448786625396</v>
+        <v>0.06310310647467961</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1504273535815038</v>
+        <v>0.1541711897881559</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>46</v>
@@ -5345,19 +5345,19 @@
         <v>44950</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33673</v>
+        <v>33702</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>58976</v>
+        <v>59845</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1152862396046655</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0863640675451105</v>
+        <v>0.08643674821217456</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1512585629214219</v>
+        <v>0.1534884609491254</v>
       </c>
     </row>
     <row r="22">
@@ -5374,19 +5374,19 @@
         <v>121054</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>104670</v>
+        <v>108704</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>134181</v>
+        <v>134173</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6063818797338738</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.524311462102766</v>
+        <v>0.5445165667130176</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6721329609166048</v>
+        <v>0.6720927707870871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>110</v>
@@ -5395,19 +5395,19 @@
         <v>123689</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110833</v>
+        <v>108679</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137274</v>
+        <v>135984</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6500861036753899</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5825148803480666</v>
+        <v>0.5711940730056578</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7214831630641856</v>
+        <v>0.7147024799837746</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>226</v>
@@ -5416,19 +5416,19 @@
         <v>244744</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>225448</v>
+        <v>224781</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>264251</v>
+        <v>263966</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6277089854221737</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5782197415127176</v>
+        <v>0.5765086778659047</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6777400866226355</v>
+        <v>0.6770091137982209</v>
       </c>
     </row>
     <row r="23">
@@ -5445,19 +5445,19 @@
         <v>22365</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14472</v>
+        <v>14190</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31928</v>
+        <v>33267</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1120307116734854</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07249023741365046</v>
+        <v>0.07107788922375817</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1599348070090502</v>
+        <v>0.1666397428475671</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -5466,19 +5466,19 @@
         <v>21020</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12609</v>
+        <v>12369</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30865</v>
+        <v>30880</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.110477326165809</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06627189459887682</v>
+        <v>0.06500667462374754</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1622197284071195</v>
+        <v>0.1623006533364053</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>39</v>
@@ -5487,19 +5487,19 @@
         <v>43385</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>31780</v>
+        <v>30952</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>58150</v>
+        <v>57681</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1112726792933379</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08150899384747058</v>
+        <v>0.07938486709833006</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1491415700738546</v>
+        <v>0.1479370194448698</v>
       </c>
     </row>
     <row r="24">
@@ -5760,19 +5760,19 @@
         <v>7751</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3907</v>
+        <v>3807</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14441</v>
+        <v>14102</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1559921727590736</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07862674102528276</v>
+        <v>0.07661929663860789</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2906126465523133</v>
+        <v>0.283802720518265</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -5781,19 +5781,19 @@
         <v>7755</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4720</v>
+        <v>4725</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11799</v>
+        <v>11721</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1652769106261767</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.100586050884251</v>
+        <v>0.1006928909945558</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2514594635158151</v>
+        <v>0.2497907501928373</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -5802,19 +5802,19 @@
         <v>15506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9906</v>
+        <v>10058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22137</v>
+        <v>23067</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1605015020654738</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.102532262014212</v>
+        <v>0.1041099000864381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2291368546051028</v>
+        <v>0.2387567095890004</v>
       </c>
     </row>
     <row r="5">
@@ -5831,19 +5831,19 @@
         <v>5809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2804</v>
+        <v>2639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11125</v>
+        <v>12292</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1168946817677897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05643496205780699</v>
+        <v>0.05311135702150889</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2238789792844151</v>
+        <v>0.2473600500216697</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -5852,19 +5852,19 @@
         <v>7934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4533</v>
+        <v>4541</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14400</v>
+        <v>13880</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1690948913980369</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09659931662009916</v>
+        <v>0.09677154566133281</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3068970399331056</v>
+        <v>0.2958198611951821</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -5873,19 +5873,19 @@
         <v>13743</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8527</v>
+        <v>8461</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21558</v>
+        <v>21923</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1422468175475096</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08825516891384633</v>
+        <v>0.08758202691115853</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.223138570819064</v>
+        <v>0.2269206693419936</v>
       </c>
     </row>
     <row r="6">
@@ -5902,19 +5902,19 @@
         <v>27706</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20197</v>
+        <v>19921</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35004</v>
+        <v>35432</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5575688360352844</v>
+        <v>0.5575688360352843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4064521051099436</v>
+        <v>0.4008881092823496</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7044390368859113</v>
+        <v>0.7130419031479359</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -5923,19 +5923,19 @@
         <v>24539</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19141</v>
+        <v>19083</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29459</v>
+        <v>29539</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5229779689117868</v>
+        <v>0.5229779689117869</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4079356898963193</v>
+        <v>0.4067001915849613</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6278344212666872</v>
+        <v>0.6295350954568467</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>73</v>
@@ -5944,19 +5944,19 @@
         <v>52245</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43112</v>
+        <v>43039</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61521</v>
+        <v>61970</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5407690498607666</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4462344954946798</v>
+        <v>0.4454788250436677</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6367857829330191</v>
+        <v>0.6414331820567648</v>
       </c>
     </row>
     <row r="7">
@@ -5973,19 +5973,19 @@
         <v>8425</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3994</v>
+        <v>4266</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14615</v>
+        <v>15594</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1695443094378524</v>
+        <v>0.1695443094378523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08038207098894237</v>
+        <v>0.08584662579945772</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2941196788175778</v>
+        <v>0.3138217263384979</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -5994,19 +5994,19 @@
         <v>6693</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4030</v>
+        <v>4095</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11041</v>
+        <v>10934</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1426502290639995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08588966248009998</v>
+        <v>0.08727722903341043</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2353036401973879</v>
+        <v>0.2330299196218492</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -6015,19 +6015,19 @@
         <v>15118</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9612</v>
+        <v>10013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22519</v>
+        <v>22697</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1564826305262501</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0994861072895904</v>
+        <v>0.1036443445323082</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2330830671356553</v>
+        <v>0.2349329856211047</v>
       </c>
     </row>
     <row r="8">
@@ -6048,19 +6048,19 @@
         <v>13520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7721</v>
+        <v>7176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24888</v>
+        <v>23859</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1807099605735113</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1032089752125479</v>
+        <v>0.09591643386613488</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3326601511897718</v>
+        <v>0.3189140714505445</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -6069,19 +6069,19 @@
         <v>13338</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8408</v>
+        <v>8022</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20572</v>
+        <v>20276</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2123800861270621</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1338779842065362</v>
+        <v>0.1277237346727368</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3275623853692443</v>
+        <v>0.3228386861263701</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -6090,19 +6090,19 @@
         <v>26858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18258</v>
+        <v>17864</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38383</v>
+        <v>38992</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1951630974075356</v>
+        <v>0.1951630974075355</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1326685938528679</v>
+        <v>0.129810852651696</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2789084669715925</v>
+        <v>0.2833325327462571</v>
       </c>
     </row>
     <row r="9">
@@ -6119,19 +6119,19 @@
         <v>6557</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2701</v>
+        <v>2764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13787</v>
+        <v>14436</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08764172635731417</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03609718534969168</v>
+        <v>0.03694917639361388</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1842823486398021</v>
+        <v>0.1929614358167958</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -6140,19 +6140,19 @@
         <v>10416</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6508</v>
+        <v>6209</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16362</v>
+        <v>16069</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1658538896704498</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1036261876617639</v>
+        <v>0.09886116487629798</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2605288482379435</v>
+        <v>0.2558525991770906</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -6161,19 +6161,19 @@
         <v>16973</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10390</v>
+        <v>10887</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25423</v>
+        <v>25500</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1233350202325909</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0755001040709609</v>
+        <v>0.07910978603403805</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1847350746286783</v>
+        <v>0.1852922555982567</v>
       </c>
     </row>
     <row r="10">
@@ -6190,19 +6190,19 @@
         <v>40556</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29527</v>
+        <v>29849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50695</v>
+        <v>50497</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5420963047336274</v>
+        <v>0.5420963047336272</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3946690233409298</v>
+        <v>0.3989801970921869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6776115427498657</v>
+        <v>0.6749613526529947</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -6211,19 +6211,19 @@
         <v>30849</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22897</v>
+        <v>22498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38682</v>
+        <v>38715</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4911915271497861</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3645790959735991</v>
+        <v>0.3582271602021236</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6159201301448038</v>
+        <v>0.6164345372122321</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -6232,19 +6232,19 @@
         <v>71405</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57792</v>
+        <v>58105</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84478</v>
+        <v>83774</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5188651459344372</v>
+        <v>0.5188651459344371</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4199414819626252</v>
+        <v>0.4222191643934956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.613855263622638</v>
+        <v>0.6087404866488814</v>
       </c>
     </row>
     <row r="11">
@@ -6261,19 +6261,19 @@
         <v>14181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7477</v>
+        <v>7589</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24755</v>
+        <v>24943</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1895520083355472</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09994747528725105</v>
+        <v>0.1014381533112367</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3308886227196076</v>
+        <v>0.3334049964047816</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -6282,19 +6282,19 @@
         <v>8201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3484</v>
+        <v>3552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20817</v>
+        <v>19580</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.130574497052702</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05546958835056937</v>
+        <v>0.05655462876591916</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.331461543391729</v>
+        <v>0.3117575164252552</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -6303,19 +6303,19 @@
         <v>22382</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13639</v>
+        <v>12956</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36951</v>
+        <v>36402</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1626367364254364</v>
+        <v>0.1626367364254363</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09910980824541413</v>
+        <v>0.09414623813810891</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2685054370944542</v>
+        <v>0.2645155915970834</v>
       </c>
     </row>
     <row r="12">
@@ -6336,19 +6336,19 @@
         <v>4086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>944</v>
+        <v>1233</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9317</v>
+        <v>10005</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1239292339358139</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02863433552696397</v>
+        <v>0.03740243600456139</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2825644912502195</v>
+        <v>0.303427955949445</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -6357,19 +6357,19 @@
         <v>7695</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4183</v>
+        <v>4432</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12645</v>
+        <v>13696</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1555162140288829</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08453264723796508</v>
+        <v>0.0895741570629269</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2555456823187386</v>
+        <v>0.2768019863978733</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -6378,19 +6378,19 @@
         <v>11781</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7093</v>
+        <v>7002</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18939</v>
+        <v>18668</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1428849052358387</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08602293272788271</v>
+        <v>0.08491723893207985</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2296939566745078</v>
+        <v>0.2264151765934604</v>
       </c>
     </row>
     <row r="13">
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6201</v>
+        <v>7394</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05590463164363381</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1880798154484301</v>
+        <v>0.2242485196993754</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -6428,19 +6428,19 @@
         <v>11246</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6844</v>
+        <v>7132</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17091</v>
+        <v>17009</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2272800828345824</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1383176131281844</v>
+        <v>0.1441436151983018</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3453994741029874</v>
+        <v>0.3437563766655539</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -6449,19 +6449,19 @@
         <v>13089</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8232</v>
+        <v>7864</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19861</v>
+        <v>19763</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1587488007315763</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09984211109954438</v>
+        <v>0.0953719078788626</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2408770549629745</v>
+        <v>0.2396873610224783</v>
       </c>
     </row>
     <row r="14">
@@ -6478,19 +6478,19 @@
         <v>21358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15013</v>
+        <v>14520</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26344</v>
+        <v>26302</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6477688602944496</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4553158277404076</v>
+        <v>0.4403718881925816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7989703583961522</v>
+        <v>0.7977216195243538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -6499,19 +6499,19 @@
         <v>26416</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20228</v>
+        <v>20380</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31981</v>
+        <v>32977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5338522043265516</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.408812075580939</v>
+        <v>0.4118763444988368</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6463363868952691</v>
+        <v>0.6664670805310964</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>54</v>
@@ -6520,19 +6520,19 @@
         <v>47773</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38576</v>
+        <v>38871</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55780</v>
+        <v>56584</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5794063045907056</v>
+        <v>0.5794063045907055</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.46786601680856</v>
+        <v>0.4714397692593369</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6765158168175616</v>
+        <v>0.686264328836533</v>
       </c>
     </row>
     <row r="15">
@@ -6549,19 +6549,19 @@
         <v>5684</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2160</v>
+        <v>2205</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11707</v>
+        <v>11454</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1723972741261028</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06550029411784682</v>
+        <v>0.06688514426085061</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3550702658285124</v>
+        <v>0.3473749748749911</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -6570,19 +6570,19 @@
         <v>4124</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8552</v>
+        <v>9346</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.08335149880998313</v>
+        <v>0.08335149880998316</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03326297532889654</v>
+        <v>0.03312767675605875</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1728360283353069</v>
+        <v>0.1888716420369426</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>12</v>
@@ -6591,19 +6591,19 @@
         <v>9808</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4876</v>
+        <v>5424</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16474</v>
+        <v>16816</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1189599894418794</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05913717224640838</v>
+        <v>0.06578354461952113</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1998070589259667</v>
+        <v>0.2039539457978322</v>
       </c>
     </row>
     <row r="16">
@@ -6624,19 +6624,19 @@
         <v>8504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4181</v>
+        <v>4485</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14930</v>
+        <v>15198</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1338189028751781</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06579580802281473</v>
+        <v>0.07058580938458217</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2349485699345825</v>
+        <v>0.2391642867227878</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -6645,19 +6645,19 @@
         <v>14112</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9241</v>
+        <v>9725</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20099</v>
+        <v>20577</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1933894220577654</v>
+        <v>0.1933894220577653</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1266379572339182</v>
+        <v>0.1332686095879425</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2754315055023098</v>
+        <v>0.281984727213026</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -6666,19 +6666,19 @@
         <v>22616</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15944</v>
+        <v>16040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30984</v>
+        <v>30982</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1656609463239452</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1167857959656928</v>
+        <v>0.1174888926109024</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2269553559480938</v>
+        <v>0.2269427433035815</v>
       </c>
     </row>
     <row r="17">
@@ -6695,19 +6695,19 @@
         <v>4638</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>923</v>
+        <v>1094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14690</v>
+        <v>13966</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07298417329716032</v>
+        <v>0.07298417329716034</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01453128958456439</v>
+        <v>0.01721916842395331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2311654977204976</v>
+        <v>0.2197735615757891</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -6716,19 +6716,19 @@
         <v>12658</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8266</v>
+        <v>7463</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18965</v>
+        <v>18937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1734617047335931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1132721981518692</v>
+        <v>0.102273369366139</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2598908759029053</v>
+        <v>0.2595017561379912</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -6737,19 +6737,19 @@
         <v>17296</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10763</v>
+        <v>10667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26578</v>
+        <v>26859</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.126692114163302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0788394754597538</v>
+        <v>0.07813336198684835</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1946786573405989</v>
+        <v>0.1967401849409674</v>
       </c>
     </row>
     <row r="18">
@@ -6766,19 +6766,19 @@
         <v>42695</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33780</v>
+        <v>33538</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49878</v>
+        <v>49601</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6718721878541802</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5315818376924938</v>
+        <v>0.5277783250658939</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7849106062974095</v>
+        <v>0.7805534906251079</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>56</v>
@@ -6787,19 +6787,19 @@
         <v>38308</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31562</v>
+        <v>30701</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45406</v>
+        <v>44936</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5249576534648176</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4325202982081366</v>
+        <v>0.4207125121874091</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6222344787160796</v>
+        <v>0.6157880336158612</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>96</v>
@@ -6808,19 +6808,19 @@
         <v>81003</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>70695</v>
+        <v>70433</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>91199</v>
+        <v>91984</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5933424209246201</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5178334912537492</v>
+        <v>0.5159153625597381</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6680237750573974</v>
+        <v>0.6737742622476184</v>
       </c>
     </row>
     <row r="19">
@@ -6837,19 +6837,19 @@
         <v>7710</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3473</v>
+        <v>3485</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15274</v>
+        <v>13890</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1213247359734813</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05465423530541599</v>
+        <v>0.05484965740355278</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2403630134173964</v>
+        <v>0.2185750074443132</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6858,19 +6858,19 @@
         <v>7895</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4487</v>
+        <v>4552</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12768</v>
+        <v>13271</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.108191219743824</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06149428722482677</v>
+        <v>0.06238201023921769</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1749752105976232</v>
+        <v>0.1818570426221941</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -6879,19 +6879,19 @@
         <v>15605</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9926</v>
+        <v>9965</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23190</v>
+        <v>23426</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1143045185881328</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07270687671364283</v>
+        <v>0.07299661019933008</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1698676670250094</v>
+        <v>0.1715945033288268</v>
       </c>
     </row>
     <row r="20">
@@ -6912,19 +6912,19 @@
         <v>33861</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23571</v>
+        <v>23504</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45477</v>
+        <v>46512</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1532007515178424</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1066436414711335</v>
+        <v>0.1063412246143457</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2057547508631796</v>
+        <v>0.2104399273231093</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>73</v>
@@ -6933,19 +6933,19 @@
         <v>42901</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33764</v>
+        <v>33427</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53092</v>
+        <v>53221</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1847737360606194</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1454227086088456</v>
+        <v>0.1439694484624117</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2286675902005628</v>
+        <v>0.2292229663175005</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>113</v>
@@ -6954,19 +6954,19 @@
         <v>76762</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>62799</v>
+        <v>62304</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>93278</v>
+        <v>91961</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1693758866814272</v>
+        <v>0.1693758866814273</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1385661704445633</v>
+        <v>0.1374737962490031</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2058205367041098</v>
+        <v>0.2029136997489991</v>
       </c>
     </row>
     <row r="21">
@@ -6983,19 +6983,19 @@
         <v>18847</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11812</v>
+        <v>11409</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30874</v>
+        <v>30213</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08526971281777303</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05344117735633263</v>
+        <v>0.05161680792172803</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1396878547870321</v>
+        <v>0.1366979692729175</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>64</v>
@@ -7004,19 +7004,19 @@
         <v>42255</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32450</v>
+        <v>32492</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>53367</v>
+        <v>52818</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1819907115133192</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1397618249107318</v>
+        <v>0.1399433815853128</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2298497208102328</v>
+        <v>0.2274874451206909</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>84</v>
@@ -7025,19 +7025,19 @@
         <v>61101</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>48279</v>
+        <v>49329</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>75868</v>
+        <v>77034</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1348207847139925</v>
+        <v>0.1348207847139926</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1065293528153712</v>
+        <v>0.1088463010599489</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1674040507758118</v>
+        <v>0.1699762688795675</v>
       </c>
     </row>
     <row r="22">
@@ -7054,19 +7054,19 @@
         <v>132316</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>117155</v>
+        <v>116016</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>148058</v>
+        <v>148392</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5986508241173486</v>
+        <v>0.5986508241173487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5300567223033462</v>
+        <v>0.5249042444834812</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6698773122892978</v>
+        <v>0.6713859851094178</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>181</v>
@@ -7075,19 +7075,19 @@
         <v>120111</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>107306</v>
+        <v>106559</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>134976</v>
+        <v>132966</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5173194707825806</v>
+        <v>0.5173194707825804</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4621661712979104</v>
+        <v>0.4589487915012882</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5813431349736726</v>
+        <v>0.5726842390595484</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>297</v>
@@ -7096,19 +7096,19 @@
         <v>252427</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230445</v>
+        <v>230404</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>270771</v>
+        <v>272885</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5569840114204124</v>
+        <v>0.5569840114204125</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5084816416038828</v>
+        <v>0.5083893107531646</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5974611030245389</v>
+        <v>0.6021244847676025</v>
       </c>
     </row>
     <row r="23">
@@ -7125,19 +7125,19 @@
         <v>36000</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25650</v>
+        <v>25918</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>50159</v>
+        <v>51069</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1628787115470358</v>
+        <v>0.1628787115470359</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1160517388288644</v>
+        <v>0.1172636391142142</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2269383484211031</v>
+        <v>0.2310565377963148</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>41</v>
@@ -7146,19 +7146,19 @@
         <v>26913</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18447</v>
+        <v>19496</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>39086</v>
+        <v>39128</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1159160816434809</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07945209617903187</v>
+        <v>0.08397043968260159</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.168345653875251</v>
+        <v>0.1685264713670262</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>77</v>
@@ -7167,19 +7167,19 @@
         <v>62913</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>49392</v>
+        <v>48983</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>79018</v>
+        <v>78981</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1388193171841677</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1089846622006456</v>
+        <v>0.1080821222570363</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1743550545165658</v>
+        <v>0.1742723104973218</v>
       </c>
     </row>
     <row r="24">
